--- a/data/trans_dic/P37A$vacunaempresa-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01346619245596773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0588684988233912</v>
+        <v>0.05886849882339119</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01960285005305664</v>
@@ -685,7 +685,7 @@
         <v>0.02239681436340909</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07532926601913034</v>
+        <v>0.07532926601913031</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01734771622685799</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006265510177521178</v>
+        <v>0.005935335460787972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02275215977288991</v>
+        <v>0.02479614640456842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004628384272933628</v>
+        <v>0.005015647263921535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04112545294968623</v>
+        <v>0.04212294563886237</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006538220210273765</v>
+        <v>0.006802699959330292</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01248884170737938</v>
+        <v>0.01262893769376039</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01075432636169785</v>
+        <v>0.011121025742848</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05693984385685415</v>
+        <v>0.05657641575083825</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009820445465546331</v>
+        <v>0.00996037699552824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02362765628725143</v>
+        <v>0.02316689854646338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009904618784506627</v>
+        <v>0.01026700343418088</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05342523212736231</v>
+        <v>0.05395869177667167</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03069306340029256</v>
+        <v>0.02906914961081134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06396735759739802</v>
+        <v>0.06405270789468913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03137324201665177</v>
+        <v>0.03260056362864006</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08343358982447505</v>
+        <v>0.08209813397728838</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04037007775851095</v>
+        <v>0.04295156749685403</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05457578911239813</v>
+        <v>0.06113423376635346</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04211646869779732</v>
+        <v>0.04339532994908592</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.100987367582202</v>
+        <v>0.09910504330786632</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02879044446601909</v>
+        <v>0.02855667565049112</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0544834699151325</v>
+        <v>0.05200666254031477</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03024059098986059</v>
+        <v>0.02951959127047542</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08305256902772172</v>
+        <v>0.08373717991567851</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01054739790665808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0589686119367874</v>
+        <v>0.05896861193678739</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.005249679656879639</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01868721341627621</v>
+        <v>0.01877454887630116</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01921476918806107</v>
+        <v>0.02035751617162665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002672904203128477</v>
+        <v>0.002672908167082989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03895799509592837</v>
+        <v>0.03993928812841945</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003268792195814984</v>
+        <v>0.005324094141495196</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02198317179533948</v>
+        <v>0.02125866266846986</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01114335057094846</v>
+        <v>0.01066977647781243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01469851817450652</v>
+        <v>0.01502382621576965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002564974275823133</v>
+        <v>0.00252618554153851</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03392144545347156</v>
+        <v>0.03515066326602759</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06087244226747202</v>
+        <v>0.06209724313846864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06394207094502911</v>
+        <v>0.0644044882228899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02556467882262982</v>
+        <v>0.02604878396686884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08269737699456346</v>
+        <v>0.08302190402072726</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01855530478267712</v>
+        <v>0.01823890294358126</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03585820394623529</v>
+        <v>0.03659100193948566</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01204624691478512</v>
+        <v>0.01198319789496872</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05529732243924076</v>
+        <v>0.05343198545814018</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03408558162543113</v>
+        <v>0.03463406720656168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04235629221790793</v>
+        <v>0.04299197522615598</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01469669926694888</v>
+        <v>0.01498015000640456</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06183930007222029</v>
+        <v>0.06332473496250969</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001495819518596117</v>
+        <v>0.001494515483717601</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006787936156000724</v>
+        <v>0.007084930004830455</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001142384959388543</v>
+        <v>0.001143454156451198</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006519443129844755</v>
+        <v>0.006100773548958684</v>
       </c>
     </row>
     <row r="12">
@@ -1018,34 +1018,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01435344849744635</v>
+        <v>0.01411776073455667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01023652300127811</v>
+        <v>0.01065645939731251</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01338685982304499</v>
+        <v>0.01085252975559642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03095762837069743</v>
+        <v>0.03198649139814102</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.02364889103604283</v>
+        <v>0.02675699559232616</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01014484490684975</v>
+        <v>0.0103482387702558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.007187454230265845</v>
+        <v>0.007271879537085856</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.008252463133608437</v>
+        <v>0.008226201796366728</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02459500737982814</v>
+        <v>0.02374436938239113</v>
       </c>
     </row>
     <row r="13">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004614040576272948</v>
+        <v>0.004301862371601191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001807954044252412</v>
+        <v>0.001830145865419358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0008600942903329353</v>
+        <v>0.0008584324771564225</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008382007214413253</v>
+        <v>0.008593583470146238</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002908468819941514</v>
+        <v>0.002875527239623843</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008608485583041841</v>
+        <v>0.0086730943101358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005733275286710715</v>
+        <v>0.006256197264029094</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04514761136220552</v>
+        <v>0.04473537688959139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005479774818358226</v>
+        <v>0.005141862370258368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005711752035353934</v>
+        <v>0.006036421191455345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003772529132186328</v>
+        <v>0.003441411024654475</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02686289902921846</v>
+        <v>0.02602200460962068</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01494576517309879</v>
+        <v>0.01500802292869198</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01262687665177377</v>
+        <v>0.01402126149812398</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007730758620795078</v>
+        <v>0.007090557027043413</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02483843938558637</v>
+        <v>0.02415955517217519</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01745093680600743</v>
+        <v>0.01828106646933471</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02999145727862572</v>
+        <v>0.02965887458301894</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02344064755739582</v>
+        <v>0.0252647926352116</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07321565303941198</v>
+        <v>0.07396488160537736</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01353955955129771</v>
+        <v>0.01407240954108586</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01747610179064059</v>
+        <v>0.01701606111281561</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01232740955933723</v>
+        <v>0.01141648407205539</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04209487887131128</v>
+        <v>0.04149120264306147</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.002841697028207447</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.008775528129130225</v>
+        <v>0.008775528129130222</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.005098586744932804</v>
@@ -1243,35 +1243,35 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003667876695958905</v>
+        <v>0.003629417653048505</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003206512365165144</v>
+        <v>0.002622068236176771</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001617864594331405</v>
+        <v>0.001622394696190481</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0012522399598878</v>
+        <v>0.001266772074190524</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.00598746758280421</v>
+        <v>0.00604804130224713</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.001014056400060022</v>
+        <v>0.001065028321791613</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002957546577454973</v>
+        <v>0.003030409174306972</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.006116727948047888</v>
+        <v>0.006074489783411361</v>
       </c>
     </row>
     <row r="18">
@@ -1282,38 +1282,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01282951528412762</v>
+        <v>0.01474737016582706</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02059921001232054</v>
+        <v>0.02099791410999714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01418966448561737</v>
+        <v>0.01575559951062643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02070982889737429</v>
+        <v>0.02135672351767375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01416773194534668</v>
+        <v>0.01387595980817505</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0137201306786664</v>
+        <v>0.01242543157171335</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.01787938221672253</v>
+        <v>0.01788641984183343</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.009373354838058689</v>
+        <v>0.01118087289288023</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01202202185490299</v>
+        <v>0.01255013715859282</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.006519596091783928</v>
+        <v>0.00645211111839138</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01565729222670467</v>
+        <v>0.0154794965213823</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.003850069339311863</v>
+        <v>0.003850069339311864</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0005799463785048035</v>
@@ -1385,7 +1385,7 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.0006460835252276689</v>
+        <v>0.0006443022227648552</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.002236229676316339</v>
+        <v>0.00216846140231484</v>
       </c>
     </row>
     <row r="21">
@@ -1407,29 +1407,29 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02449332874034668</v>
+        <v>0.02216885334130256</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.05716218535413773</v>
+        <v>0.05430859677189447</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.002894937900038299</v>
+        <v>0.003584109197198615</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.01157722076682606</v>
+        <v>0.01265470685255988</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.002334937845716803</v>
+        <v>0.003257538054350884</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.005191760000470286</v>
+        <v>0.005514355218505537</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.01708782039675808</v>
+        <v>0.01660945632514371</v>
       </c>
     </row>
     <row r="22">
@@ -1465,7 +1465,7 @@
         <v>0.005407042350507476</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.03144106725947937</v>
+        <v>0.03144106725947938</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.007932870695643284</v>
@@ -1488,40 +1488,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007624406381249538</v>
+        <v>0.007563652157668937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0096722099532931</v>
+        <v>0.01030327050016591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002523932826123506</v>
+        <v>0.002530645963015999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02186480955617089</v>
+        <v>0.02154854022133701</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003237967993159718</v>
+        <v>0.003152163576615881</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005824315251272338</v>
+        <v>0.005997160038262484</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003299880272912913</v>
+        <v>0.003220782268296368</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02676641821185874</v>
+        <v>0.02670683597420307</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00587336254553859</v>
+        <v>0.005974396532587619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008604454561110798</v>
+        <v>0.008247832666402992</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003462095425737154</v>
+        <v>0.003499288976005847</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02564410429131014</v>
+        <v>0.02577368905896629</v>
       </c>
     </row>
     <row r="24">
@@ -1532,40 +1532,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01506920237012715</v>
+        <v>0.01431444306156915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01823970020385506</v>
+        <v>0.01840529380758736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007461351546876415</v>
+        <v>0.007723013987018511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03327525607760547</v>
+        <v>0.03422563442875456</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.008087701565420087</v>
+        <v>0.008145966863168473</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01255758583912497</v>
+        <v>0.01279967548456875</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.008464125032707657</v>
+        <v>0.008341481720258136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03689549053832829</v>
+        <v>0.03725108542617565</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01053565052522865</v>
+        <v>0.01043945208113608</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0141699839862842</v>
+        <v>0.01386971551908652</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.007219622832604649</v>
+        <v>0.007030286449045063</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03362446788028897</v>
+        <v>0.03382468990666703</v>
       </c>
     </row>
     <row r="25">
@@ -1838,40 +1838,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2968</v>
+        <v>2812</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9947</v>
+        <v>10841</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1986</v>
+        <v>2152</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22644</v>
+        <v>23194</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2005</v>
+        <v>2086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3927</v>
+        <v>3971</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3732</v>
+        <v>3860</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27810</v>
+        <v>27633</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7664</v>
+        <v>7774</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17760</v>
+        <v>17414</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7687</v>
+        <v>7969</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55510</v>
+        <v>56065</v>
       </c>
     </row>
     <row r="7">
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14542</v>
+        <v>13772</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27967</v>
+        <v>28005</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13462</v>
+        <v>13989</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45940</v>
+        <v>45205</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12381</v>
+        <v>13172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17162</v>
+        <v>19224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14617</v>
+        <v>15061</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49323</v>
+        <v>48404</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22470</v>
+        <v>22287</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40953</v>
+        <v>39092</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23471</v>
+        <v>22912</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>86294</v>
+        <v>87005</v>
       </c>
     </row>
     <row r="8">
@@ -2018,40 +2018,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6857</v>
+        <v>6889</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8047</v>
+        <v>8526</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18825</v>
+        <v>19299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1105</v>
+        <v>1800</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9302</v>
+        <v>8995</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8233</v>
+        <v>7883</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11124</v>
+        <v>11370</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1922</v>
+        <v>1893</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30745</v>
+        <v>31859</v>
       </c>
     </row>
     <row r="11">
@@ -2062,40 +2062,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22336</v>
+        <v>22786</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26779</v>
+        <v>26972</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9644</v>
+        <v>9826</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39960</v>
+        <v>40117</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6900</v>
+        <v>6782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12120</v>
+        <v>12368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4484</v>
+        <v>4461</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23399</v>
+        <v>22609</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25182</v>
+        <v>25588</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32056</v>
+        <v>32537</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11015</v>
+        <v>11228</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>56048</v>
+        <v>57395</v>
       </c>
     </row>
     <row r="12">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3201</v>
+        <v>3341</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4297</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="15">
@@ -2236,34 +2236,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7785</v>
+        <v>7657</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6443</v>
+        <v>6707</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6987</v>
+        <v>5664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14600</v>
+        <v>15085</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4434</v>
+        <v>5017</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7205</v>
+        <v>7349</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6394</v>
+        <v>6469</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5678</v>
+        <v>5660</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16211</v>
+        <v>15650</v>
       </c>
     </row>
     <row r="16">
@@ -2366,40 +2366,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5714</v>
+        <v>5327</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2095</v>
+        <v>2121</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9487</v>
+        <v>9727</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2077</v>
+        <v>2054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6600</v>
+        <v>6649</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4735</v>
+        <v>5167</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>38882</v>
+        <v>38527</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10700</v>
+        <v>10040</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10999</v>
+        <v>11624</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7453</v>
+        <v>6799</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>53539</v>
+        <v>51863</v>
       </c>
     </row>
     <row r="19">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18508</v>
+        <v>18585</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14635</v>
+        <v>16251</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8888</v>
+        <v>8152</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28113</v>
+        <v>27345</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12465</v>
+        <v>13058</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22993</v>
+        <v>22738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19359</v>
+        <v>20866</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>63054</v>
+        <v>63699</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26438</v>
+        <v>27478</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33653</v>
+        <v>32767</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24353</v>
+        <v>22553</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83897</v>
+        <v>82694</v>
       </c>
     </row>
     <row r="20">
@@ -2549,35 +2549,35 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1821</v>
+        <v>1489</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>4975</v>
+        <v>5025</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>932</v>
+        <v>979</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3762</v>
+        <v>3855</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8556</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="23">
@@ -2588,38 +2588,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4497</v>
+        <v>5170</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10518</v>
+        <v>10721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8808</v>
+        <v>9780</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11762</v>
+        <v>12130</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8058</v>
+        <v>7892</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10448</v>
+        <v>9462</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>14855</v>
+        <v>14861</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8617</v>
+        <v>10279</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15293</v>
+        <v>15965</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8860</v>
+        <v>8768</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21902</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="24">
@@ -2735,7 +2735,7 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>2419</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="27">
@@ -2757,29 +2757,29 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6537</v>
+        <v>5916</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>13560</v>
+        <v>12884</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3615</v>
+        <v>4476</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>9774</v>
+        <v>10684</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3612</v>
+        <v>5039</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>7145</v>
+        <v>7589</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>18481</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="28">
@@ -2882,40 +2882,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24933</v>
+        <v>24735</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33097</v>
+        <v>35257</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8545</v>
+        <v>8568</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>75269</v>
+        <v>74180</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10938</v>
+        <v>10648</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20677</v>
+        <v>21291</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>11654</v>
+        <v>11375</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>97306</v>
+        <v>97090</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>39048</v>
+        <v>39720</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>59991</v>
+        <v>57504</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23948</v>
+        <v>24206</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>181506</v>
+        <v>182423</v>
       </c>
     </row>
     <row r="31">
@@ -2926,40 +2926,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>49279</v>
+        <v>46811</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>62415</v>
+        <v>62981</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25262</v>
+        <v>26148</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>114549</v>
+        <v>117821</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27321</v>
+        <v>27518</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>44581</v>
+        <v>45440</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>29892</v>
+        <v>29459</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>134130</v>
+        <v>135422</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>70044</v>
+        <v>69405</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>98794</v>
+        <v>96700</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>49940</v>
+        <v>48631</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>237990</v>
+        <v>239407</v>
       </c>
     </row>
     <row r="32">
